--- a/账目系统/字段.xlsx
+++ b/账目系统/字段.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\账目系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AccountSystem\账目系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEDABE9-7E89-47E9-B33C-9272D2DB2D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA2639A-03BE-43DF-8704-992107214302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{959F3DD8-3FE2-4518-8580-DAA6D60E7A28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{959F3DD8-3FE2-4518-8580-DAA6D60E7A28}"/>
   </bookViews>
   <sheets>
     <sheet name="记账界面树形结构" sheetId="1" r:id="rId1"/>
+    <sheet name="表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +34,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+  <si>
+    <t>2023年11月08号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账目表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支流向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +153,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -60,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,15 +196,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,15 +565,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D10F48B-FCB2-4D90-84B4-A0D6868F082D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E2EDC-C969-4090-A719-0401FC0F660E}">
+  <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="12" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="8:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>